--- a/Excel_Data/Astral.xlsx
+++ b/Excel_Data/Astral.xlsx
@@ -406,8 +406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -488,7 +488,7 @@
         <v>1370</v>
       </c>
       <c r="L2" s="2">
-        <v>1400</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
